--- a/Code/Results/Cases/Case_8_15/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_8_15/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9993691293961587</v>
+        <v>0.9987089300572375</v>
       </c>
       <c r="D2">
-        <v>1.019044837594696</v>
+        <v>1.018512525754692</v>
       </c>
       <c r="E2">
-        <v>1.005409733890405</v>
+        <v>1.004950176740952</v>
       </c>
       <c r="F2">
-        <v>1.024513196678118</v>
+        <v>1.024282770707064</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.043090893826476</v>
+        <v>1.042981712177948</v>
       </c>
       <c r="J2">
-        <v>1.021568726080996</v>
+        <v>1.020928325496581</v>
       </c>
       <c r="K2">
-        <v>1.030245073562848</v>
+        <v>1.029719838388194</v>
       </c>
       <c r="L2">
-        <v>1.016794213524791</v>
+        <v>1.016340975854021</v>
       </c>
       <c r="M2">
-        <v>1.035641268804003</v>
+        <v>1.03541386418664</v>
       </c>
       <c r="N2">
-        <v>1.0230194708476</v>
+        <v>1.021331556914839</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.036780054260157</v>
+        <v>1.036600077794605</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.032456067353128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.032093521059055</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.019750020134215</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.00489036358927</v>
+        <v>1.003278900192447</v>
       </c>
       <c r="D3">
-        <v>1.022687600940145</v>
+        <v>1.021395789568246</v>
       </c>
       <c r="E3">
-        <v>1.009942745536198</v>
+        <v>1.00864455497901</v>
       </c>
       <c r="F3">
-        <v>1.027972580676934</v>
+        <v>1.027340293595954</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.044280435173701</v>
+        <v>1.043838190211376</v>
       </c>
       <c r="J3">
-        <v>1.025248594381116</v>
+        <v>1.023680576443151</v>
       </c>
       <c r="K3">
-        <v>1.033038191579736</v>
+        <v>1.031762035170476</v>
       </c>
       <c r="L3">
-        <v>1.020449968322393</v>
+        <v>1.019168009190147</v>
       </c>
       <c r="M3">
-        <v>1.038259632894482</v>
+        <v>1.037634904754381</v>
       </c>
       <c r="N3">
-        <v>1.026704564982795</v>
+        <v>1.022874741096077</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.038852321637166</v>
+        <v>1.038357889896757</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.034428395713323</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.033534588597935</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.020221645963093</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.008379964250151</v>
+        <v>1.006175578111837</v>
       </c>
       <c r="D4">
-        <v>1.024993134403959</v>
+        <v>1.023226202116223</v>
       </c>
       <c r="E4">
-        <v>1.012813324698119</v>
+        <v>1.010991717266163</v>
       </c>
       <c r="F4">
-        <v>1.030168904005731</v>
+        <v>1.029286382484943</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.045021091370515</v>
+        <v>1.044370409901249</v>
       </c>
       <c r="J4">
-        <v>1.027571711919762</v>
+        <v>1.0254226204051</v>
       </c>
       <c r="K4">
-        <v>1.034798989467766</v>
+        <v>1.033052161573579</v>
       </c>
       <c r="L4">
-        <v>1.022759525323629</v>
+        <v>1.020959267635012</v>
       </c>
       <c r="M4">
-        <v>1.039916357226594</v>
+        <v>1.039043742658797</v>
       </c>
       <c r="N4">
-        <v>1.029030981614811</v>
+        <v>1.023851493323773</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.040163509674304</v>
+        <v>1.039472893096873</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.03567435256147</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.03444781518303</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.020516803809906</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.009834746710229</v>
+        <v>1.007384484926459</v>
       </c>
       <c r="D5">
-        <v>1.025957684010953</v>
+        <v>1.023993424378229</v>
       </c>
       <c r="E5">
-        <v>1.014012307714766</v>
+        <v>1.011973432674963</v>
       </c>
       <c r="F5">
-        <v>1.031085756772971</v>
+        <v>1.030099508551672</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.045329405036474</v>
+        <v>1.044592036892875</v>
       </c>
       <c r="J5">
-        <v>1.028541610154661</v>
+        <v>1.026150923408571</v>
       </c>
       <c r="K5">
-        <v>1.035535593067756</v>
+        <v>1.033593080375018</v>
       </c>
       <c r="L5">
-        <v>1.023724072601462</v>
+        <v>1.021708433961691</v>
       </c>
       <c r="M5">
-        <v>1.040607370772282</v>
+        <v>1.039631895952799</v>
       </c>
       <c r="N5">
-        <v>1.030002257216452</v>
+        <v>1.0242598455959</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.040710400612475</v>
+        <v>1.039938377508297</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.036202408441182</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.034838223542597</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.020640679299437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.010086192341721</v>
+        <v>1.007592862998709</v>
       </c>
       <c r="D6">
-        <v>1.026127722878611</v>
+        <v>1.024128969005716</v>
       </c>
       <c r="E6">
-        <v>1.014220814839257</v>
+        <v>1.012143785210733</v>
       </c>
       <c r="F6">
-        <v>1.031243082933994</v>
+        <v>1.030238644404253</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.045385312902095</v>
+        <v>1.044632663979234</v>
       </c>
       <c r="J6">
-        <v>1.028711766820366</v>
+        <v>1.026278738786186</v>
       </c>
       <c r="K6">
-        <v>1.03566732779237</v>
+        <v>1.033690599903521</v>
       </c>
       <c r="L6">
-        <v>1.023893211558114</v>
+        <v>1.021839740584156</v>
       </c>
       <c r="M6">
-        <v>1.04072679449487</v>
+        <v>1.039733277289935</v>
       </c>
       <c r="N6">
-        <v>1.03017265552414</v>
+        <v>1.02433151027241</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.040804916448004</v>
+        <v>1.040018614097326</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.036304345419679</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.034916848595192</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.020663946719883</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.008421887594709</v>
+        <v>1.006250495757877</v>
       </c>
       <c r="D7">
-        <v>1.025029775862851</v>
+        <v>1.023288094304531</v>
       </c>
       <c r="E7">
-        <v>1.012851149409074</v>
+        <v>1.011061826089188</v>
       </c>
       <c r="F7">
-        <v>1.030191881605324</v>
+        <v>1.029325233498172</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.045037519131151</v>
+        <v>1.044400292734471</v>
       </c>
       <c r="J7">
-        <v>1.027606574032453</v>
+        <v>1.025489620767887</v>
       </c>
       <c r="K7">
-        <v>1.034832311615305</v>
+        <v>1.033110438175142</v>
       </c>
       <c r="L7">
-        <v>1.022793957493329</v>
+        <v>1.021025595743503</v>
       </c>
       <c r="M7">
-        <v>1.039936193293302</v>
+        <v>1.039079269985147</v>
       </c>
       <c r="N7">
-        <v>1.029065893235701</v>
+        <v>1.02394160066193</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.040179208598296</v>
+        <v>1.039501010633232</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.035718136527522</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.03451126857233</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.020536860517377</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.001281483172843</v>
+        <v>1.000421802506162</v>
       </c>
       <c r="D8">
-        <v>1.020317034102556</v>
+        <v>1.019622692735107</v>
       </c>
       <c r="E8">
-        <v>1.006982991001656</v>
+        <v>1.00635888665956</v>
       </c>
       <c r="F8">
-        <v>1.025705013835057</v>
+        <v>1.025397050836432</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.043514777098556</v>
+        <v>1.043343079266157</v>
       </c>
       <c r="J8">
-        <v>1.022852577523356</v>
+        <v>1.022017776241461</v>
       </c>
       <c r="K8">
-        <v>1.031228655026355</v>
+        <v>1.030543263793039</v>
       </c>
       <c r="L8">
-        <v>1.018069196808905</v>
+        <v>1.017453406258158</v>
       </c>
       <c r="M8">
-        <v>1.036547697505084</v>
+        <v>1.03624365040041</v>
       </c>
       <c r="N8">
-        <v>1.02430514550627</v>
+        <v>1.02210190826094</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.037497435168758</v>
+        <v>1.03725680122266</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.033174636514876</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.032701120622539</v>
+      </c>
+      <c r="S8">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T8">
+        <v>1.019957235964414</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.987985971311223</v>
+        <v>0.98950530236609</v>
       </c>
       <c r="D9">
-        <v>1.011556943256926</v>
+        <v>1.012749842072027</v>
       </c>
       <c r="E9">
-        <v>0.9960984657795966</v>
+        <v>0.9975697086155108</v>
       </c>
       <c r="F9">
-        <v>1.017440414630703</v>
+        <v>1.018141200396108</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.04057999537491</v>
+        <v>1.041238015312946</v>
       </c>
       <c r="J9">
-        <v>1.013970227487275</v>
+        <v>1.015434177306726</v>
       </c>
       <c r="K9">
-        <v>1.024465259132213</v>
+        <v>1.02563939422091</v>
       </c>
       <c r="L9">
-        <v>1.009255161411403</v>
+        <v>1.01070233904851</v>
       </c>
       <c r="M9">
-        <v>1.03025673146895</v>
+        <v>1.03094664967195</v>
       </c>
       <c r="N9">
-        <v>1.015410181514318</v>
+        <v>1.018430233843693</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.032518519002469</v>
+        <v>1.033064548924962</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.028389152952977</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.029230224554695</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.018809523717551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9787563601950036</v>
+        <v>0.9821906891207158</v>
       </c>
       <c r="D10">
-        <v>1.005523835820362</v>
+        <v>1.008219658518904</v>
       </c>
       <c r="E10">
-        <v>0.9885999918506135</v>
+        <v>0.9917685955696897</v>
       </c>
       <c r="F10">
-        <v>1.011938063940259</v>
+        <v>1.013462989125603</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.038533011239453</v>
+        <v>1.039863278087797</v>
       </c>
       <c r="J10">
-        <v>1.007838941037339</v>
+        <v>1.011129163102645</v>
       </c>
       <c r="K10">
-        <v>1.019794066834721</v>
+        <v>1.022442073648864</v>
       </c>
       <c r="L10">
-        <v>1.003178173412674</v>
+        <v>1.00628807821288</v>
       </c>
       <c r="M10">
-        <v>1.026095067188005</v>
+        <v>1.027593346552023</v>
       </c>
       <c r="N10">
-        <v>1.009270187934355</v>
+        <v>1.016252558419752</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.029276815159194</v>
+        <v>1.03046254516062</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.025103256170292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.026988161583797</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.018079129129114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9758062395354047</v>
+        <v>0.9800992720689007</v>
       </c>
       <c r="D11">
-        <v>1.003772582894153</v>
+        <v>1.007135810959285</v>
       </c>
       <c r="E11">
-        <v>0.9863805282071867</v>
+        <v>0.990319558222942</v>
       </c>
       <c r="F11">
-        <v>1.011557169167063</v>
+        <v>1.013457674612152</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.03821986430722</v>
+        <v>1.039846985007422</v>
       </c>
       <c r="J11">
-        <v>1.006221331546128</v>
+        <v>1.01032403684009</v>
       </c>
       <c r="K11">
-        <v>1.018623702798252</v>
+        <v>1.021924399436969</v>
       </c>
       <c r="L11">
-        <v>1.001563940916689</v>
+        <v>1.005426372054159</v>
       </c>
       <c r="M11">
-        <v>1.026264376459576</v>
+        <v>1.028130184455433</v>
       </c>
       <c r="N11">
-        <v>1.007650281252124</v>
+        <v>1.016251209349641</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.029851401246867</v>
+        <v>1.031327233884595</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.024309047335883</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.026658595370992</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.018077064739964</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9751054426091426</v>
+        <v>0.9796101817855104</v>
       </c>
       <c r="D12">
-        <v>1.003441538943781</v>
+        <v>1.006965208633723</v>
       </c>
       <c r="E12">
-        <v>0.9859444979160369</v>
+        <v>0.9900660672906695</v>
       </c>
       <c r="F12">
-        <v>1.012123609493739</v>
+        <v>1.014112828156679</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.038317478977015</v>
+        <v>1.040004792815775</v>
       </c>
       <c r="J12">
-        <v>1.006002074481359</v>
+        <v>1.010303265086556</v>
       </c>
       <c r="K12">
-        <v>1.018503100189138</v>
+        <v>1.021960171868338</v>
       </c>
       <c r="L12">
-        <v>1.001346025908089</v>
+        <v>1.005386092967292</v>
       </c>
       <c r="M12">
-        <v>1.02702216870962</v>
+        <v>1.028974552909619</v>
       </c>
       <c r="N12">
-        <v>1.007430712817173</v>
+        <v>1.016434851973903</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.03077992694865</v>
+        <v>1.032323709509984</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.024223775055259</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.026683887629993</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.018160447427143</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9761205977169132</v>
+        <v>0.9802916363194933</v>
       </c>
       <c r="D13">
-        <v>1.004210581638174</v>
+        <v>1.007465969069196</v>
       </c>
       <c r="E13">
-        <v>0.9868783338530654</v>
+        <v>0.9906843435421826</v>
       </c>
       <c r="F13">
-        <v>1.013488954494364</v>
+        <v>1.015323563612744</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.038757322774916</v>
+        <v>1.040303444997184</v>
       </c>
       <c r="J13">
-        <v>1.00687466358132</v>
+        <v>1.010858392282032</v>
       </c>
       <c r="K13">
-        <v>1.019213791286895</v>
+        <v>1.022407958897857</v>
       </c>
       <c r="L13">
-        <v>1.002216421883564</v>
+        <v>1.005947577787321</v>
       </c>
       <c r="M13">
-        <v>1.028319029205137</v>
+        <v>1.030119892452329</v>
       </c>
       <c r="N13">
-        <v>1.008304541093744</v>
+        <v>1.016702719982773</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.032083868977261</v>
+        <v>1.033507479728629</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.024723742535723</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.026997723038596</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.018311319416843</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9775989452202448</v>
+        <v>0.981301789114208</v>
       </c>
       <c r="D14">
-        <v>1.005241877711912</v>
+        <v>1.008125871973527</v>
       </c>
       <c r="E14">
-        <v>0.9881443051996855</v>
+        <v>0.9915167680818423</v>
       </c>
       <c r="F14">
-        <v>1.014790031739558</v>
+        <v>1.016413109707289</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.039215828518892</v>
+        <v>1.04057872720489</v>
       </c>
       <c r="J14">
-        <v>1.007971302566797</v>
+        <v>1.011510467333598</v>
       </c>
       <c r="K14">
-        <v>1.020082452411255</v>
+        <v>1.022912926206578</v>
       </c>
       <c r="L14">
-        <v>1.003310587806357</v>
+        <v>1.00661764030083</v>
       </c>
       <c r="M14">
-        <v>1.029454928021642</v>
+        <v>1.031048569475804</v>
       </c>
       <c r="N14">
-        <v>1.009402737432366</v>
+        <v>1.016931152878987</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.033156021383226</v>
+        <v>1.034415649011543</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.025339375037651</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.027356331051794</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.018450453015235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.978347330673876</v>
+        <v>0.9818220809203998</v>
       </c>
       <c r="D15">
-        <v>1.005746314907791</v>
+        <v>1.008450880438562</v>
       </c>
       <c r="E15">
-        <v>0.9887652025815742</v>
+        <v>0.9919290878597539</v>
       </c>
       <c r="F15">
-        <v>1.015316841190593</v>
+        <v>1.016838287808736</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.039411122452248</v>
+        <v>1.040688664386351</v>
       </c>
       <c r="J15">
-        <v>1.008492746118599</v>
+        <v>1.011815335908679</v>
       </c>
       <c r="K15">
-        <v>1.020489341780438</v>
+        <v>1.02314411402499</v>
       </c>
       <c r="L15">
-        <v>1.003829021553709</v>
+        <v>1.006932047734976</v>
       </c>
       <c r="M15">
-        <v>1.029885215541567</v>
+        <v>1.031379290778941</v>
       </c>
       <c r="N15">
-        <v>1.009924921493822</v>
+        <v>1.017020943681866</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.033533828027845</v>
+        <v>1.034714726554868</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.025633015130832</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.027526297019766</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.018505870760304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9820622589119559</v>
+        <v>0.9844934992401297</v>
       </c>
       <c r="D16">
-        <v>1.008150920872949</v>
+        <v>1.010041841134218</v>
       </c>
       <c r="E16">
-        <v>0.991752135137433</v>
+        <v>0.9939765835074873</v>
       </c>
       <c r="F16">
-        <v>1.017427600776399</v>
+        <v>1.018491970769576</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.040205648964134</v>
+        <v>1.041112415513834</v>
       </c>
       <c r="J16">
-        <v>1.010926966806294</v>
+        <v>1.013257342289219</v>
       </c>
       <c r="K16">
-        <v>1.022338301026724</v>
+        <v>1.02419597129049</v>
       </c>
       <c r="L16">
-        <v>1.006234800523242</v>
+        <v>1.008418450614007</v>
       </c>
       <c r="M16">
-        <v>1.031453390601322</v>
+        <v>1.032499463674307</v>
       </c>
       <c r="N16">
-        <v>1.012362599054103</v>
+        <v>1.017420065844811</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.034734415908215</v>
+        <v>1.035561243048021</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.026943524590142</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.028273506547433</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.018713939886686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9841434021253187</v>
+        <v>0.9860634452461875</v>
       </c>
       <c r="D17">
-        <v>1.009461170360792</v>
+        <v>1.01095580711097</v>
       </c>
       <c r="E17">
-        <v>0.9933876979710395</v>
+        <v>0.9951592074561624</v>
       </c>
       <c r="F17">
-        <v>1.018365117101379</v>
+        <v>1.019209885021215</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.040575350432153</v>
+        <v>1.041308800179906</v>
       </c>
       <c r="J17">
-        <v>1.012224865412076</v>
+        <v>1.014067923930827</v>
       </c>
       <c r="K17">
-        <v>1.023305319963293</v>
+        <v>1.024774430044097</v>
       </c>
       <c r="L17">
-        <v>1.007512666688233</v>
+        <v>1.009252649029175</v>
       </c>
       <c r="M17">
-        <v>1.032058623486584</v>
+        <v>1.032889275168249</v>
       </c>
       <c r="N17">
-        <v>1.013662340824776</v>
+        <v>1.017684407283092</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.035083179540539</v>
+        <v>1.035739801240242</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.027629870838691</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.0286853656131</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.018811515751828</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9849740740851595</v>
+        <v>0.9867353868816259</v>
       </c>
       <c r="D18">
-        <v>1.009912689167767</v>
+        <v>1.011287302313588</v>
       </c>
       <c r="E18">
-        <v>0.9939707593237741</v>
+        <v>0.9956095158510274</v>
       </c>
       <c r="F18">
-        <v>1.018261116248602</v>
+        <v>1.019041242988426</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.040586942072741</v>
+        <v>1.041277154376048</v>
       </c>
       <c r="J18">
-        <v>1.012617013097215</v>
+        <v>1.014309054210508</v>
       </c>
       <c r="K18">
-        <v>1.023562482617089</v>
+        <v>1.024914005580977</v>
       </c>
       <c r="L18">
-        <v>1.007894383267466</v>
+        <v>1.009504467582814</v>
       </c>
       <c r="M18">
-        <v>1.031771911881133</v>
+        <v>1.032539199491881</v>
       </c>
       <c r="N18">
-        <v>1.014055045404609</v>
+        <v>1.017736320018374</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.034617557248865</v>
+        <v>1.035224217827526</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.027799925119957</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.028771155763043</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.018793192175193</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9846891659715246</v>
+        <v>0.9865676067956305</v>
       </c>
       <c r="D19">
-        <v>1.009614499799753</v>
+        <v>1.011085535605136</v>
       </c>
       <c r="E19">
-        <v>0.9936224074211112</v>
+        <v>0.9953764320659695</v>
       </c>
       <c r="F19">
-        <v>1.017173339782107</v>
+        <v>1.018008962635377</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.040289466648736</v>
+        <v>1.041036361033634</v>
       </c>
       <c r="J19">
-        <v>1.012205251226891</v>
+        <v>1.014010199829495</v>
       </c>
       <c r="K19">
-        <v>1.023205648296309</v>
+        <v>1.024652090838191</v>
       </c>
       <c r="L19">
-        <v>1.007487002031669</v>
+        <v>1.009210479618626</v>
       </c>
       <c r="M19">
-        <v>1.030639089832974</v>
+        <v>1.031460996984115</v>
       </c>
       <c r="N19">
-        <v>1.013642698785198</v>
+        <v>1.017545307184197</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.033394127264391</v>
+        <v>1.034044188051962</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.027554097126819</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.028593062087337</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.018672688113367</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9812266680997115</v>
+        <v>0.9840041476278684</v>
       </c>
       <c r="D20">
-        <v>1.007160942807749</v>
+        <v>1.009342603475788</v>
       </c>
       <c r="E20">
-        <v>0.9906154348293218</v>
+        <v>0.9931898753845467</v>
       </c>
       <c r="F20">
-        <v>1.013406659629804</v>
+        <v>1.014641686259609</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.039106988629585</v>
+        <v>1.040197512917611</v>
       </c>
       <c r="J20">
-        <v>1.009500956539584</v>
+        <v>1.012165919292584</v>
       </c>
       <c r="K20">
-        <v>1.021079033616944</v>
+        <v>1.023223139943408</v>
       </c>
       <c r="L20">
-        <v>1.004825332421613</v>
+        <v>1.007353539032344</v>
       </c>
       <c r="M20">
-        <v>1.02721779549468</v>
+        <v>1.02843187411527</v>
       </c>
       <c r="N20">
-        <v>1.010934563689248</v>
+        <v>1.016635911027431</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.030154679342316</v>
+        <v>1.031115505978838</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.026054449842222</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.027587092161877</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.01825274626965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9740119769958013</v>
+        <v>0.9789871978608493</v>
       </c>
       <c r="D21">
-        <v>1.002420974117167</v>
+        <v>1.006329140514852</v>
       </c>
       <c r="E21">
-        <v>0.9847364069121111</v>
+        <v>0.9893191047164389</v>
       </c>
       <c r="F21">
-        <v>1.008863059279348</v>
+        <v>1.011084499953242</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.037419744501196</v>
+        <v>1.039330363448884</v>
       </c>
       <c r="J21">
-        <v>1.004637914890377</v>
+        <v>1.009390505804768</v>
       </c>
       <c r="K21">
-        <v>1.01735662510457</v>
+        <v>1.021191589360281</v>
       </c>
       <c r="L21">
-        <v>1.000012839942229</v>
+        <v>1.004505695238938</v>
       </c>
       <c r="M21">
-        <v>1.023678441545754</v>
+        <v>1.025858872660787</v>
       </c>
       <c r="N21">
-        <v>1.0060646159631</v>
+        <v>1.015901197936628</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.027312165605391</v>
+        <v>1.029037860824173</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.023425799295488</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.026154290277788</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.017837955163961</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9693897750514204</v>
+        <v>0.9757801804875895</v>
       </c>
       <c r="D22">
-        <v>0.9993919620384739</v>
+        <v>1.004417361077819</v>
       </c>
       <c r="E22">
-        <v>0.9809846771219666</v>
+        <v>0.9868624415872873</v>
       </c>
       <c r="F22">
-        <v>1.0060588681456</v>
+        <v>1.008920715531849</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.036340989599007</v>
+        <v>1.038784851578754</v>
       </c>
       <c r="J22">
-        <v>1.001534856468899</v>
+        <v>1.007621481222882</v>
       </c>
       <c r="K22">
-        <v>1.01497547391058</v>
+        <v>1.019901814177551</v>
       </c>
       <c r="L22">
-        <v>0.9969424832358591</v>
+        <v>1.002698727237839</v>
       </c>
       <c r="M22">
-        <v>1.021511245693494</v>
+        <v>1.02431749879262</v>
       </c>
       <c r="N22">
-        <v>1.002957150842738</v>
+        <v>1.015388326028563</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.025596941095659</v>
+        <v>1.027817945863578</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.021728464856972</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.025227372569889</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.017577492341494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9718291394973071</v>
+        <v>0.9773958628163653</v>
       </c>
       <c r="D23">
-        <v>1.00098112305737</v>
+        <v>1.00535398652635</v>
       </c>
       <c r="E23">
-        <v>0.9829596626881046</v>
+        <v>0.9880781749158164</v>
       </c>
       <c r="F23">
-        <v>1.00754009515281</v>
+        <v>1.010025180753582</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.036903845387242</v>
+        <v>1.039032597378563</v>
       </c>
       <c r="J23">
-        <v>1.003165784119175</v>
+        <v>1.008476140792395</v>
       </c>
       <c r="K23">
-        <v>1.016220807244409</v>
+        <v>1.020509749455251</v>
       </c>
       <c r="L23">
-        <v>0.9985555843517501</v>
+        <v>1.003571179159757</v>
       </c>
       <c r="M23">
-        <v>1.022654260743256</v>
+        <v>1.025092345782699</v>
       </c>
       <c r="N23">
-        <v>1.004590394597348</v>
+        <v>1.015543062989129</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.026501579496025</v>
+        <v>1.028431196075422</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.022599199873737</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.025646512248127</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.017686658967713</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9811967861841778</v>
+        <v>0.9839872595460313</v>
       </c>
       <c r="D24">
-        <v>1.007113080187391</v>
+        <v>1.009305226611393</v>
       </c>
       <c r="E24">
-        <v>0.9905700497140832</v>
+        <v>0.9931575363343242</v>
       </c>
       <c r="F24">
-        <v>1.013257639800632</v>
+        <v>1.014499024761181</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.039056300442903</v>
+        <v>1.040153643074657</v>
       </c>
       <c r="J24">
-        <v>1.009438369778775</v>
+        <v>1.012115951900282</v>
       </c>
       <c r="K24">
-        <v>1.021016423115636</v>
+        <v>1.023170879119299</v>
       </c>
       <c r="L24">
-        <v>1.004764814638072</v>
+        <v>1.007305888360505</v>
       </c>
       <c r="M24">
-        <v>1.027055868913252</v>
+        <v>1.02827621724713</v>
       </c>
       <c r="N24">
-        <v>1.01087188804806</v>
+        <v>1.01659985208944</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.029985217838539</v>
+        <v>1.030951055414957</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.025982409215438</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.027519737154865</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.018228368259625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9915474247536353</v>
+        <v>0.9923604787677903</v>
       </c>
       <c r="D25">
-        <v>1.013913828759992</v>
+        <v>1.01454972150989</v>
       </c>
       <c r="E25">
-        <v>0.9990141020230046</v>
+        <v>0.9998587815567107</v>
       </c>
       <c r="F25">
-        <v>1.019638306891594</v>
+        <v>1.02003627381325</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.041388257810444</v>
+        <v>1.041797004872875</v>
       </c>
       <c r="J25">
-        <v>1.016362639038954</v>
+        <v>1.017147707156089</v>
       </c>
       <c r="K25">
-        <v>1.026299923006608</v>
+        <v>1.026926293742563</v>
       </c>
       <c r="L25">
-        <v>1.011627742091389</v>
+        <v>1.012459290155221</v>
       </c>
       <c r="M25">
-        <v>1.031939224929689</v>
+        <v>1.032331315534626</v>
       </c>
       <c r="N25">
-        <v>1.017805990564814</v>
+        <v>1.019324171387277</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.033850113466398</v>
+        <v>1.034160429720821</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.029715295660919</v>
+        <v>1.030171835768288</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.019112218462493</v>
       </c>
     </row>
   </sheetData>
